--- a/biology/Zoologie/Eurylaime_rouge_et_noir/Eurylaime_rouge_et_noir.xlsx
+++ b/biology/Zoologie/Eurylaime_rouge_et_noir/Eurylaime_rouge_et_noir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cymbirhynchus macrorhynchos
 L'Eurylaime rouge et noir (Cymbirhynchus macrorhynchos) est une espèce d'oiseau appartenant à la famille des Eurylaimidae. C'est la seule espèce du genre Cymbirhynchus.
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'eurylaime rouge et noir mesure jusqu'à 25 cm de long de la tête à la queue[1].
+L'eurylaime rouge et noir mesure jusqu'à 25 cm de long de la tête à la queue.
 Il a le dos et la tête noirs, les ailes noires et blanches et la queue rouge, noire et blanche. Son bec est bleu, jaune à la base.
 </t>
         </is>
@@ -545,7 +559,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet eurylaime mange essentiellement des insectes et parfois quelques invertébrés.
 </t>
@@ -576,7 +592,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau construit un nid en forme de sac accroché à l'extrémité d'une branche. La femelle y dépose 2 à 3 œufs qu'elle couve.
 </t>
@@ -607,7 +625,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un oiseau que l'on trouve dans toute l'Asie du Sud-Est.
 </t>
@@ -638,7 +658,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit dans les forêts tropicales et les mangroves. Il aime être au bord de l'eau
 </t>
@@ -669,7 +691,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, il existe trois sous-espèces :
 Cymbirhynchus macrorhynchos affinis  Blyth, 1846 ; Sumatra, Borneo et les îles adjacentes ;
